--- a/IMS/wwwroot/import/customer/Test_Excel.xlsx
+++ b/IMS/wwwroot/import/customer/Test_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Z_STUDYYYYY\Capstone\IMS\IMS\wwwroot\import\customer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE63D8C4-FA17-40D2-8F43-B8AABD4A7803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F9AD93-7ACB-4614-9B25-B502DD6A0B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96F0708B-C260-474A-A5B2-5271D5C263F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Fullname</t>
   </si>
@@ -77,46 +77,13 @@
     <t>123456789hh</t>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Invalid</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">The Email field is not a valid e-mail address._x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000D_
-The Email field is not a valid e-mail address.
-The PhoneNumber field is not a valid phone number.
+    <t xml:space="preserve">The PhoneNumber field is not a valid phone number.
 </t>
-    </r>
+  </si>
+  <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">The Email field is not a valid e-mail address._x005F_x005F_x000D_
-</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">The PhoneNumber field is not a valid phone number._x005F_x005F_x000D_
-</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
       <d:t xml:space="preserve">The Email field is not a valid e-mail address._x005F_x000D_
@@ -131,24 +98,6 @@
       <d:t xml:space="preserve">The PhoneNumber field is not a valid phone number._x005F_x000D_
 </d:t>
     </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">The Email field is not a valid e-mail address._x000D_
-</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">The PhoneNumber field is not a valid phone number._x000D_
-</d:t>
-    </d:r>
   </si>
   <si>
     <t>Trần Cao Vỹ</t>
@@ -166,7 +115,7 @@
     <t>FPT</t>
   </si>
   <si>
-    <t>Ok</t>
+    <t>User EXISTED</t>
   </si>
   <si>
     <t>Trần Anh Tuấn</t>
@@ -257,15 +206,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -583,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9C2E14-37AA-4415-B5E6-1C02DB7CE749}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H2" sqref="H2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -624,7 +579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="69">
+    <row r="2">
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
@@ -646,25 +601,28 @@
       <c r="G2" s="0">
         <v>11111111</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="0">
         <v>124124124</v>
@@ -672,25 +630,29 @@
       <c r="G3" s="0">
         <v>22222222</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="0">
         <v>741457888</v>
@@ -698,25 +660,29 @@
       <c r="G4" s="0">
         <v>33333333</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
+      <c r="H4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="M4" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="0">
         <v>348479343</v>
@@ -724,25 +690,29 @@
       <c r="G5" s="0">
         <v>44444444</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="M5" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="0">
         <v>744089975</v>
@@ -750,18 +720,22 @@
       <c r="G6" s="0">
         <v>55555555</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>19</v>
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId13"/>
-    <hyperlink ref="B3" r:id="rId14"/>
-    <hyperlink ref="B4" r:id="rId15"/>
-    <hyperlink ref="B5" r:id="rId16"/>
-    <hyperlink ref="B6" r:id="rId17"/>
+    <hyperlink ref="B2" r:id="rId9"/>
+    <hyperlink ref="B3" r:id="rId10"/>
+    <hyperlink ref="B4" r:id="rId11"/>
+    <hyperlink ref="B5" r:id="rId12"/>
+    <hyperlink ref="B6" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/IMS/wwwroot/import/customer/Test_Excel.xlsx
+++ b/IMS/wwwroot/import/customer/Test_Excel.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Fullname</t>
   </si>
@@ -86,7 +86,7 @@
         <d:sz val="11"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">The Email field is not a valid e-mail address._x005F_x000D_
+      <d:t xml:space="preserve">The Email field is not a valid e-mail address._x005F_x005F_x000D_
 </d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -95,7 +95,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">The PhoneNumber field is not a valid phone number._x005F_x000D_
+      <d:t xml:space="preserve">The PhoneNumber field is not a valid phone number._x005F_x005F_x000D_
 </d:t>
     </d:r>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>FPT</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
   <si>
     <t>User EXISTED</t>
@@ -635,24 +638,24 @@
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="0">
         <v>741457888</v>
@@ -665,24 +668,24 @@
       </c>
       <c r="J4" s="2"/>
       <c r="M4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="0">
         <v>348479343</v>
@@ -695,24 +698,24 @@
       </c>
       <c r="K5" s="2"/>
       <c r="M5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="0">
         <v>744089975</v>
@@ -725,17 +728,17 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId9"/>
-    <hyperlink ref="B3" r:id="rId10"/>
-    <hyperlink ref="B4" r:id="rId11"/>
-    <hyperlink ref="B5" r:id="rId12"/>
-    <hyperlink ref="B6" r:id="rId13"/>
+    <hyperlink ref="B2" r:id="rId13"/>
+    <hyperlink ref="B3" r:id="rId14"/>
+    <hyperlink ref="B4" r:id="rId15"/>
+    <hyperlink ref="B5" r:id="rId16"/>
+    <hyperlink ref="B6" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/IMS/wwwroot/import/customer/Test_Excel.xlsx
+++ b/IMS/wwwroot/import/customer/Test_Excel.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Z_STUDYYYYY\Capstone\IMS\IMS\wwwroot\import\customer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F9AD93-7ACB-4614-9B25-B502DD6A0B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2676EA4-2536-4669-A271-CD7E56B7E289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96F0708B-C260-474A-A5B2-5271D5C263F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Fullname</t>
   </si>
@@ -81,25 +81,6 @@
 </t>
   </si>
   <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">The Email field is not a valid e-mail address._x005F_x005F_x000D_
-</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">The PhoneNumber field is not a valid phone number._x005F_x005F_x000D_
-</d:t>
-    </d:r>
-  </si>
-  <si>
     <t>Trần Cao Vỹ</t>
   </si>
   <si>
@@ -113,9 +94,6 @@
   </si>
   <si>
     <t>FPT</t>
-  </si>
-  <si>
-    <t>Ok</t>
   </si>
   <si>
     <t>User EXISTED</t>
@@ -167,8 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,19 +188,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -544,203 +515,192 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:L6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="14.09765625" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.09765625" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="9.796875" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="10.19921875" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="13.69921875" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="13" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>11111111</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>124124124</v>
+      </c>
+      <c r="G3">
+        <v>22222222</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="0" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>741457888</v>
+      </c>
+      <c r="G4">
+        <v>33333333</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="0">
-        <v>124124124</v>
-      </c>
-      <c r="G3" s="0">
-        <v>22222222</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="M3" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="J4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="0">
-        <v>741457888</v>
-      </c>
-      <c r="G4" s="0">
-        <v>33333333</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="M4" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>348479343</v>
+      </c>
+      <c r="G5">
+        <v>44444444</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="0" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="0">
-        <v>348479343</v>
-      </c>
-      <c r="G5" s="0">
-        <v>44444444</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="M5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>744089975</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>55555555</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>20</v>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="M6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId13"/>
-    <hyperlink ref="B3" r:id="rId14"/>
-    <hyperlink ref="B4" r:id="rId15"/>
-    <hyperlink ref="B5" r:id="rId16"/>
-    <hyperlink ref="B6" r:id="rId17"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/IMS/wwwroot/import/customer/Test_Excel.xlsx
+++ b/IMS/wwwroot/import/customer/Test_Excel.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Z_STUDYYYYY\Capstone\IMS\IMS\wwwroot\import\customer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2676EA4-2536-4669-A271-CD7E56B7E289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9362978-1930-422D-BB85-2BA438580235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96F0708B-C260-474A-A5B2-5271D5C263F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,42 +36,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
-  <si>
-    <t>Fullname</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>Tên Công Ty</t>
+  </si>
+  <si>
+    <t>Loại Công Ty</t>
+  </si>
+  <si>
+    <t>Họ Tên Người Đại Diện</t>
+  </si>
+  <si>
+    <t>Mã Số Thuế</t>
+  </si>
+  <si>
+    <t>Địa Chỉ</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>TaxNumber</t>
+    <t>Điện Thoại Liên Hệ</t>
+  </si>
+  <si>
+    <t>Kích Thước (U)</t>
+  </si>
+  <si>
+    <t>Số U Thêm</t>
+  </si>
+  <si>
+    <t>Số Port</t>
+  </si>
+  <si>
+    <t>Công Suất Thêm</t>
+  </si>
+  <si>
+    <t>Số IP Thêm</t>
+  </si>
+  <si>
+    <t>Cân Bằng Tải (Y/N)</t>
+  </si>
+  <si>
+    <t>Số Cổng Dự Phòng</t>
+  </si>
+  <si>
+    <t>Số Cổng Nâng Cấp</t>
+  </si>
+  <si>
+    <t>Ngày Cấp Phát</t>
+  </si>
+  <si>
+    <t>Ngày Ngừng Server</t>
+  </si>
+  <si>
+    <t>Kết Quả</t>
+  </si>
+  <si>
+    <t>Lỗi Thẩm Định</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Công ty hợp danh</t>
   </si>
   <si>
     <t>Đầu Khấc Nhiên</t>
   </si>
   <si>
+    <t>ktxB</t>
+  </si>
+  <si>
     <t>dknhiengmail.com</t>
-  </si>
-  <si>
-    <t>username1</t>
-  </si>
-  <si>
-    <t>ktxB</t>
-  </si>
-  <si>
-    <t>ABC</t>
   </si>
   <si>
     <t>123456789hh</t>
@@ -81,37 +117,34 @@
 </t>
   </si>
   <si>
+    <t>FPT</t>
+  </si>
+  <si>
     <t>Trần Cao Vỹ</t>
   </si>
   <si>
+    <t>Tân Bình</t>
+  </si>
+  <si>
     <t>vytc@gmail.com</t>
   </si>
   <si>
-    <t>username2</t>
-  </si>
-  <si>
-    <t>Tân Bình</t>
-  </si>
-  <si>
-    <t>FPT</t>
-  </si>
-  <si>
     <t>User EXISTED</t>
   </si>
   <si>
+    <t>Phong Vu</t>
+  </si>
+  <si>
     <t>Trần Anh Tuấn</t>
   </si>
   <si>
+    <t>Vina House</t>
+  </si>
+  <si>
     <t>tuantt@gmail.com</t>
   </si>
   <si>
-    <t>username3</t>
-  </si>
-  <si>
-    <t>Vina House</t>
-  </si>
-  <si>
-    <t>Phong Vu</t>
+    <t>Red Dragon</t>
   </si>
   <si>
     <t>Phạm Nhật Hạ</t>
@@ -120,32 +153,24 @@
     <t>hapn@gmail.com</t>
   </si>
   <si>
-    <t>username4</t>
-  </si>
-  <si>
-    <t>Red Dragon</t>
+    <t>German</t>
   </si>
   <si>
     <t>Ngô Tố Oanh</t>
   </si>
   <si>
+    <t>Tân Phú</t>
+  </si>
+  <si>
     <t>oanhtn@gmail.com</t>
-  </si>
-  <si>
-    <t>username5</t>
-  </si>
-  <si>
-    <t>Tân Phú</t>
-  </si>
-  <si>
-    <t>German</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +213,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -512,195 +540,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9C2E14-37AA-4415-B5E6-1C02DB7CE749}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="18.296875" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="20.09765625" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.796875" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10.09765625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="16.296875" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="16.5" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="13.59765625" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="13" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="10.5" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="14.59765625" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="10.296875" customWidth="1"/>
+    <col min="13" max="13" bestFit="1" width="16.796875" customWidth="1"/>
+    <col min="14" max="14" bestFit="1" width="16.69921875" customWidth="1"/>
+    <col min="15" max="15" bestFit="1" width="16.59765625" customWidth="1"/>
+    <col min="16" max="16" bestFit="1" width="13.19921875" customWidth="1"/>
+    <col min="17" max="17" bestFit="1" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="0">
         <v>11111111</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="2"/>
+      <c r="E2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="0">
+        <v>22222222</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="0">
         <v>124124124</v>
       </c>
-      <c r="G3">
-        <v>22222222</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4">
+      <c r="C4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="0">
+        <v>33333333</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="0">
         <v>741457888</v>
       </c>
-      <c r="G4">
-        <v>33333333</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
+      <c r="H4" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="J4" s="2"/>
       <c r="M4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5">
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="0">
+        <v>44444444</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="0">
         <v>348479343</v>
       </c>
-      <c r="G5">
-        <v>44444444</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="0">
+        <v>55555555</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="0">
+        <v>744089975</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6">
-        <v>744089975</v>
-      </c>
-      <c r="G6">
-        <v>55555555</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F2" r:id="rId5"/>
+    <hyperlink ref="F3" r:id="rId6"/>
+    <hyperlink ref="F4" r:id="rId7"/>
+    <hyperlink ref="F5" r:id="rId8"/>
+    <hyperlink ref="F6" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/IMS/wwwroot/import/customer/Test_Excel.xlsx
+++ b/IMS/wwwroot/import/customer/Test_Excel.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Tên Công Ty</t>
   </si>
@@ -93,31 +93,32 @@
   </si>
   <si>
     <t>Lỗi Thẩm Định</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>Công ty hợp danh</t>
-  </si>
-  <si>
-    <t>Đầu Khấc Nhiên</t>
-  </si>
-  <si>
-    <t>ktxB</t>
-  </si>
-  <si>
-    <t>dknhiengmail.com</t>
-  </si>
-  <si>
-    <t>123456789hh</t>
   </si>
   <si>
     <t xml:space="preserve">The PhoneNumber field is not a valid phone number.
 </t>
   </si>
   <si>
-    <t>FPT</t>
+    <t>Công ty hợp danh</t>
+  </si>
+  <si>
+    <t>Đầu Khấc Nhiên</t>
+  </si>
+  <si>
+    <t>ktxB</t>
+  </si>
+  <si>
+    <t>dknhiengmail.com</t>
+  </si>
+  <si>
+    <t>123456789hh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PhoneNumber field is not a valid phone number.
+</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
   <si>
     <t>Trần Cao Vỹ</t>
@@ -132,9 +133,6 @@
     <t>User EXISTED</t>
   </si>
   <si>
-    <t>Phong Vu</t>
-  </si>
-  <si>
     <t>Trần Anh Tuấn</t>
   </si>
   <si>
@@ -144,16 +142,10 @@
     <t>tuantt@gmail.com</t>
   </si>
   <si>
-    <t>Red Dragon</t>
-  </si>
-  <si>
     <t>Phạm Nhật Hạ</t>
   </si>
   <si>
     <t>hapn@gmail.com</t>
-  </si>
-  <si>
-    <t>German</t>
   </si>
   <si>
     <t>Ngô Tố Oanh</t>
@@ -213,13 +205,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -627,7 +622,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -655,7 +650,7 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -684,23 +679,23 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>31</v>
+      <c r="A4" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="0">
         <v>33333333</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G4" s="0">
         <v>741457888</v>
@@ -713,23 +708,23 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>35</v>
+      <c r="A5" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="0">
         <v>44444444</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="0">
         <v>348479343</v>
@@ -742,23 +737,23 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>38</v>
+      <c r="A6" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0">
         <v>55555555</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6" s="0">
         <v>744089975</v>
@@ -773,11 +768,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId5"/>
-    <hyperlink ref="F3" r:id="rId6"/>
-    <hyperlink ref="F4" r:id="rId7"/>
-    <hyperlink ref="F5" r:id="rId8"/>
-    <hyperlink ref="F6" r:id="rId9"/>
+    <hyperlink ref="F2" r:id="rId9"/>
+    <hyperlink ref="F3" r:id="rId10"/>
+    <hyperlink ref="F4" r:id="rId11"/>
+    <hyperlink ref="F5" r:id="rId12"/>
+    <hyperlink ref="F6" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/IMS/wwwroot/import/customer/Test_Excel.xlsx
+++ b/IMS/wwwroot/import/customer/Test_Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Z_STUDYYYYY\Capstone\IMS\IMS\wwwroot\import\customer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vende\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9362978-1930-422D-BB85-2BA438580235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F498C17-DA0E-4916-A26F-E3B9FDA7D93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96F0708B-C260-474A-A5B2-5271D5C263F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Tên Công Ty</t>
   </si>
@@ -59,28 +59,10 @@
     <t>Điện Thoại Liên Hệ</t>
   </si>
   <si>
-    <t>Kích Thước (U)</t>
-  </si>
-  <si>
-    <t>Số U Thêm</t>
-  </si>
-  <si>
-    <t>Số Port</t>
-  </si>
-  <si>
-    <t>Công Suất Thêm</t>
-  </si>
-  <si>
-    <t>Số IP Thêm</t>
-  </si>
-  <si>
-    <t>Cân Bằng Tải (Y/N)</t>
-  </si>
-  <si>
-    <t>Số Cổng Dự Phòng</t>
-  </si>
-  <si>
-    <t>Số Cổng Nâng Cấp</t>
+    <t>Kích Thước Dự Kiến</t>
+  </si>
+  <si>
+    <t>Ngày Tạo</t>
   </si>
   <si>
     <t>Ngày Cấp Phát</t>
@@ -89,48 +71,56 @@
     <t>Ngày Ngừng Server</t>
   </si>
   <si>
-    <t>Kết Quả</t>
-  </si>
-  <si>
-    <t>Lỗi Thẩm Định</t>
+    <t>Ghi Chú</t>
+  </si>
+  <si>
+    <t>Thuê Chỗ</t>
+  </si>
+  <si>
+    <t>Thêm 1U</t>
+  </si>
+  <si>
+    <t>Công suất 100</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Công ty hợp danh</t>
+  </si>
+  <si>
+    <t>Đầu Khấc Nhiên</t>
+  </si>
+  <si>
+    <t>ktxB</t>
+  </si>
+  <si>
+    <t>dknhiengmail.com</t>
+  </si>
+  <si>
+    <t>123456789hh</t>
   </si>
   <si>
     <t xml:space="preserve">The PhoneNumber field is not a valid phone number.
 </t>
   </si>
   <si>
-    <t>Công ty hợp danh</t>
-  </si>
-  <si>
-    <t>Đầu Khấc Nhiên</t>
-  </si>
-  <si>
-    <t>ktxB</t>
-  </si>
-  <si>
-    <t>dknhiengmail.com</t>
-  </si>
-  <si>
-    <t>123456789hh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The PhoneNumber field is not a valid phone number.
-</t>
+    <t>FPT</t>
+  </si>
+  <si>
+    <t>Trần Cao Vỹ</t>
+  </si>
+  <si>
+    <t>Tân Bình</t>
+  </si>
+  <si>
+    <t>vytc@gmail.com</t>
   </si>
   <si>
     <t>Ok</t>
   </si>
   <si>
-    <t>Trần Cao Vỹ</t>
-  </si>
-  <si>
-    <t>Tân Bình</t>
-  </si>
-  <si>
-    <t>vytc@gmail.com</t>
-  </si>
-  <si>
-    <t>User EXISTED</t>
+    <t>Phong Vu</t>
   </si>
   <si>
     <t>Trần Anh Tuấn</t>
@@ -142,10 +132,16 @@
     <t>tuantt@gmail.com</t>
   </si>
   <si>
+    <t>Red Dragon</t>
+  </si>
+  <si>
     <t>Phạm Nhật Hạ</t>
   </si>
   <si>
     <t>hapn@gmail.com</t>
+  </si>
+  <si>
+    <t>German</t>
   </si>
   <si>
     <t>Ngô Tố Oanh</t>
@@ -162,7 +158,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,11 +173,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,18 +196,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -535,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9C2E14-37AA-4415-B5E6-1C02DB7CE749}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -551,15 +534,11 @@
     <col min="6" max="6" bestFit="1" width="16.296875" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="16.5" customWidth="1"/>
     <col min="8" max="8" bestFit="1" width="13.59765625" customWidth="1"/>
-    <col min="9" max="9" bestFit="1" width="13" customWidth="1"/>
-    <col min="10" max="10" bestFit="1" width="10.5" customWidth="1"/>
-    <col min="11" max="11" bestFit="1" width="14.59765625" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="10.296875" customWidth="1"/>
-    <col min="13" max="13" bestFit="1" width="16.796875" customWidth="1"/>
-    <col min="14" max="14" bestFit="1" width="16.69921875" customWidth="1"/>
-    <col min="15" max="15" bestFit="1" width="16.59765625" customWidth="1"/>
-    <col min="16" max="16" bestFit="1" width="13.19921875" customWidth="1"/>
-    <col min="17" max="17" bestFit="1" width="17.09765625" customWidth="1"/>
+    <col min="9" max="12" width="13.59765625" customWidth="1"/>
+    <col min="13" max="13" bestFit="1" width="13" customWidth="1"/>
+    <col min="14" max="14" bestFit="1" width="10.5" customWidth="1"/>
+    <col min="15" max="15" bestFit="1" width="14.59765625" customWidth="1"/>
+    <col min="16" max="16" bestFit="1" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -608,172 +587,259 @@
       <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>19</v>
+      <c r="A2" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0">
         <v>11111111</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="P2" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H2" s="0">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45214</v>
+      </c>
+      <c r="J2" s="2">
+        <v>45217</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45224</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="0">
+        <v>0</v>
+      </c>
+      <c r="N2" s="0">
+        <v>2</v>
+      </c>
+      <c r="O2" s="0">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
+      <c r="A3" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" s="0">
         <v>22222222</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0">
         <v>124124124</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="H3" s="0">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45215</v>
+      </c>
+      <c r="J3" s="2">
+        <v>45218</v>
+      </c>
+      <c r="K3" s="2">
+        <v>45225</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="0">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0">
+        <v>1</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
+      <c r="A4" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0">
         <v>33333333</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G4" s="0">
         <v>741457888</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="H4" s="0">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45216</v>
+      </c>
+      <c r="J4" s="2">
+        <v>45219</v>
+      </c>
+      <c r="K4" s="2">
+        <v>45226</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="0">
+        <v>4</v>
+      </c>
+      <c r="N4" s="0">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>26</v>
+      <c r="A5" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="0">
         <v>44444444</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="0">
         <v>348479343</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="H5" s="0">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>45217</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45220</v>
+      </c>
+      <c r="K5" s="2">
+        <v>45227</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="0">
+        <v>0</v>
+      </c>
+      <c r="N5" s="0">
+        <v>0</v>
+      </c>
+      <c r="O5" s="0">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>26</v>
+      <c r="A6" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="0">
         <v>55555555</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G6" s="0">
         <v>744089975</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="H6" s="0">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>45218</v>
+      </c>
+      <c r="J6" s="2">
+        <v>45221</v>
+      </c>
+      <c r="K6" s="2">
+        <v>45228</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="0">
+        <v>1</v>
+      </c>
+      <c r="N6" s="0">
+        <v>0</v>
+      </c>
+      <c r="O6" s="0">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId9"/>
-    <hyperlink ref="F3" r:id="rId10"/>
-    <hyperlink ref="F4" r:id="rId11"/>
-    <hyperlink ref="F5" r:id="rId12"/>
-    <hyperlink ref="F6" r:id="rId13"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/IMS/wwwroot/import/customer/Test_Excel.xlsx
+++ b/IMS/wwwroot/import/customer/Test_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vende\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F498C17-DA0E-4916-A26F-E3B9FDA7D93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97A98E7-E4D1-44D4-A451-D4C9B5AA43F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96F0708B-C260-474A-A5B2-5271D5C263F1}"/>
   </bookViews>
@@ -114,7 +114,7 @@
     <t>Tân Bình</t>
   </si>
   <si>
-    <t>vytc@gmail.com</t>
+    <t>vendetta9z147@gmail.com</t>
   </si>
   <si>
     <t>Ok</t>
@@ -521,7 +521,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -840,6 +840,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/IMS/wwwroot/import/customer/Test_Excel.xlsx
+++ b/IMS/wwwroot/import/customer/Test_Excel.xlsx
@@ -117,7 +117,7 @@
     <t>vendetta9z147@gmail.com</t>
   </si>
   <si>
-    <t>Ok</t>
+    <t>User EXISTED</t>
   </si>
   <si>
     <t>Phong Vu</t>

--- a/IMS/wwwroot/import/customer/Test_Excel.xlsx
+++ b/IMS/wwwroot/import/customer/Test_Excel.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Tên Công Ty</t>
   </si>
@@ -117,19 +117,22 @@
     <t>vendetta9z147@gmail.com</t>
   </si>
   <si>
+    <t>REGISTER_USER_ERROR</t>
+  </si>
+  <si>
+    <t>Phong Vu</t>
+  </si>
+  <si>
+    <t>Trần Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Vina House</t>
+  </si>
+  <si>
+    <t>tuantt@gmail.com</t>
+  </si>
+  <si>
     <t>User EXISTED</t>
-  </si>
-  <si>
-    <t>Phong Vu</t>
-  </si>
-  <si>
-    <t>Trần Anh Tuấn</t>
-  </si>
-  <si>
-    <t>Vina House</t>
-  </si>
-  <si>
-    <t>tuantt@gmail.com</t>
   </si>
   <si>
     <t>Red Dragon</t>
@@ -735,18 +738,18 @@
         <v>1</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="0">
         <v>44444444</v>
@@ -755,7 +758,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="0">
         <v>348479343</v>
@@ -785,27 +788,27 @@
         <v>1</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0">
         <v>55555555</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="0">
         <v>744089975</v>
@@ -835,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/IMS/wwwroot/import/customer/Test_Excel.xlsx
+++ b/IMS/wwwroot/import/customer/Test_Excel.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Tên Công Ty</t>
   </si>
@@ -117,7 +117,7 @@
     <t>vendetta9z147@gmail.com</t>
   </si>
   <si>
-    <t>REGISTER_USER_ERROR</t>
+    <t>Ok</t>
   </si>
   <si>
     <t>Phong Vu</t>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>tuantt@gmail.com</t>
-  </si>
-  <si>
-    <t>User EXISTED</t>
   </si>
   <si>
     <t>Red Dragon</t>
@@ -738,18 +735,18 @@
         <v>1</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="0">
         <v>44444444</v>
@@ -758,7 +755,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="0">
         <v>348479343</v>
@@ -788,27 +785,27 @@
         <v>1</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="0">
         <v>55555555</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G6" s="0">
         <v>744089975</v>
@@ -838,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
